--- a/input_data/admin_data/CHL/gpinter_CHL_2022.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2022.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>year</t>
   </si>
@@ -207,6 +207,69 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -399,10 +462,136 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -653,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J85"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -661,31 +850,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
@@ -693,31 +882,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="D2">
-        <v>1972919.61925878</v>
+        <v>5414527.2746970505</v>
       </c>
       <c r="E2">
-        <v>0.64000000000000001</v>
+        <v>0.42999999999999999</v>
       </c>
       <c r="F2">
-        <v>69910.201315954895</v>
+        <v>14688.111716376199</v>
       </c>
       <c r="G2">
-        <v>0.99988750325347797</v>
+        <v>0.99999812496703799</v>
       </c>
       <c r="H2">
-        <v>5479715.7561679697</v>
+        <v>9499152.8461051397</v>
       </c>
       <c r="I2">
-        <v>127448.524840517</v>
+        <v>68877.135701183593</v>
       </c>
       <c r="J2">
-        <v>78.382205358023896</v>
+        <v>646.72389681747097</v>
       </c>
     </row>
     <row r="3">
@@ -725,29 +914,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.65000000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="F3">
-        <v>186543.63973451199</v>
+        <v>124007.762474442</v>
       </c>
       <c r="G3">
-        <v>0.99924151380922299</v>
+        <v>0.999870916935373</v>
       </c>
       <c r="H3">
-        <v>5632637.6770630404</v>
+        <v>9667550.6266480703</v>
       </c>
       <c r="I3">
-        <v>248848.309507297</v>
+        <v>181046.83885350599</v>
       </c>
       <c r="J3">
-        <v>30.194745235374299</v>
+        <v>77.9592376617599</v>
       </c>
     </row>
     <row r="4">
@@ -755,29 +944,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.66000000000000003</v>
+        <v>0.45000000000000001</v>
       </c>
       <c r="F4">
-        <v>312806.43827347999</v>
+        <v>239052.632701444</v>
       </c>
       <c r="G4">
-        <v>0.997980193747938</v>
+        <v>0.99953654455221097</v>
       </c>
       <c r="H4">
-        <v>5790984.4231676199</v>
+        <v>9840032.5136988796</v>
       </c>
       <c r="I4">
-        <v>380170.823276415</v>
+        <v>299016.40327758098</v>
       </c>
       <c r="J4">
-        <v>18.512996264177499</v>
+        <v>41.162619304796401</v>
       </c>
     </row>
     <row r="5">
@@ -785,29 +974,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.67000000000000004</v>
+        <v>0.46000000000000002</v>
       </c>
       <c r="F5">
-        <v>449288.62089260499</v>
+        <v>359971.265908484</v>
       </c>
       <c r="G5">
-        <v>0.99605324842505005</v>
+        <v>0.998984296150629</v>
       </c>
       <c r="H5">
-        <v>5954948.4716491699</v>
+        <v>10016717.997225201</v>
       </c>
       <c r="I5">
-        <v>522015.50361603801</v>
+        <v>422931.95680995099</v>
       </c>
       <c r="J5">
-        <v>13.2541715831094</v>
+        <v>27.826437679533498</v>
       </c>
     </row>
     <row r="6">
@@ -815,29 +1004,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68000000000000005</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="F6">
-        <v>596598.56346694997</v>
+        <v>486907.17472099501</v>
       </c>
       <c r="G6">
-        <v>0.99340734486912097</v>
+        <v>0.99820319018264103</v>
       </c>
       <c r="H6">
-        <v>6124727.6269001998</v>
+        <v>10197732.8281764</v>
       </c>
       <c r="I6">
-        <v>674998.55148519599</v>
+        <v>552933.97658619005</v>
       </c>
       <c r="J6">
-        <v>10.266078401711599</v>
+        <v>20.943895176775499</v>
       </c>
     </row>
     <row r="7">
@@ -845,29 +1034,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.68999999999999995</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F7">
-        <v>755359.64687757206</v>
+        <v>619997.57974166505</v>
       </c>
       <c r="G7">
-        <v>0.98998602681390901</v>
+        <v>0.99718198565538696</v>
       </c>
       <c r="H7">
-        <v>6300525.33901037</v>
+        <v>10383209.729168599</v>
       </c>
       <c r="I7">
-        <v>839749.03758101305</v>
+        <v>689155.961871212</v>
       </c>
       <c r="J7">
-        <v>8.34109336533243</v>
+        <v>16.7471778413957</v>
       </c>
     </row>
     <row r="8">
@@ -875,29 +1064,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.69999999999999996</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F8">
-        <v>926205.77837973402</v>
+        <v>759372.01482011494</v>
       </c>
       <c r="G8">
-        <v>0.98572964946642905</v>
+        <v>0.99590919501844299</v>
       </c>
       <c r="H8">
-        <v>6482551.2157246796</v>
+        <v>10573289.2148018</v>
       </c>
       <c r="I8">
-        <v>1016903.75542959</v>
+        <v>831722.968737585</v>
       </c>
       <c r="J8">
-        <v>6.9990399186074903</v>
+        <v>13.923727775649599</v>
       </c>
     </row>
     <row r="9">
@@ -905,29 +1094,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.70999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>1109775.53077991</v>
+        <v>905150.78967077704</v>
       </c>
       <c r="G9">
-        <v>0.98057534036278904</v>
+        <v>0.99437309975741295</v>
       </c>
       <c r="H9">
-        <v>6671021.8178038197</v>
+        <v>10768120.5397231</v>
       </c>
       <c r="I9">
-        <v>1207100.5467922799</v>
+        <v>980749.99767237995</v>
       </c>
       <c r="J9">
-        <v>6.0111451665506097</v>
+        <v>11.8964935595314</v>
       </c>
     </row>
     <row r="10">
@@ -935,29 +1124,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.71999999999999997</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F10">
-        <v>1306704.5995599299</v>
+        <v>1057443.3009942099</v>
       </c>
       <c r="G10">
-        <v>0.97445699405506803</v>
+        <v>0.99256176896542403</v>
       </c>
       <c r="H10">
-        <v>6866161.8631970901</v>
+        <v>10967862.7956833</v>
       </c>
       <c r="I10">
-        <v>1410969.7712435699</v>
+        <v>1136340.22543272</v>
       </c>
       <c r="J10">
-        <v>5.2545631702141904</v>
+        <v>10.3720575707192</v>
       </c>
     </row>
     <row r="11">
@@ -965,29 +1154,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.72999999999999998</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F11">
-        <v>1517616.2198260999</v>
+        <v>1216346.18376225</v>
       </c>
       <c r="G11">
-        <v>0.96730531003575804</v>
+        <v>0.99046308118017101</v>
       </c>
       <c r="H11">
-        <v>7068206.0147509202</v>
+        <v>11172686.182563599</v>
       </c>
       <c r="I11">
-        <v>1629123.52847095</v>
+        <v>1298583.0732782299</v>
       </c>
       <c r="J11">
-        <v>4.6574396889095198</v>
+        <v>9.1854492838590094</v>
       </c>
     </row>
     <row r="12">
@@ -995,29 +1184,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.73999999999999999</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F12">
-        <v>1743109.11664068</v>
+        <v>1381941.2952275099</v>
       </c>
       <c r="G12">
-        <v>0.95904788529037999</v>
+        <v>0.98806474978871806</v>
       </c>
       <c r="H12">
-        <v>7277401.4949924601</v>
+        <v>11382773.4827611</v>
       </c>
       <c r="I12">
-        <v>1862142.16813363</v>
+        <v>1467552.1047413</v>
       </c>
       <c r="J12">
-        <v>4.1749546402565096</v>
+        <v>8.2367995819150792</v>
       </c>
     </row>
     <row r="13">
@@ -1025,29 +1214,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.75</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F13">
-        <v>1983742.4828274699</v>
+        <v>1554293.5256497799</v>
       </c>
       <c r="G13">
-        <v>0.94960937522663402</v>
+        <v>0.98535435231487201</v>
       </c>
       <c r="H13">
-        <v>7494011.8680668101</v>
+        <v>11598321.773587599</v>
       </c>
       <c r="I13">
-        <v>2110557.5366688399</v>
+        <v>1643302.74801358</v>
       </c>
       <c r="J13">
-        <v>3.7777140596321002</v>
+        <v>7.4621180505393498</v>
       </c>
     </row>
     <row r="14">
@@ -1055,29 +1244,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.76000000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F14">
-        <v>2240017.3870152598</v>
+        <v>1733448.43187638</v>
       </c>
       <c r="G14">
-        <v>0.93891173951929696</v>
+        <v>0.98231936391303498</v>
       </c>
       <c r="H14">
-        <v>7718322.4652083898</v>
+        <v>11819544.418600401</v>
       </c>
       <c r="I14">
-        <v>2374832.31324851</v>
+        <v>1825869.84045022</v>
       </c>
       <c r="J14">
-        <v>3.4456529266019502</v>
+        <v>6.8185151639072599</v>
       </c>
     </row>
     <row r="15">
@@ -1085,29 +1274,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.77000000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F15">
-        <v>2512353.91160675</v>
+        <v>1919429.6930160499</v>
       </c>
       <c r="G15">
-        <v>0.92687459269351402</v>
+        <v>0.97894719539708197</v>
       </c>
       <c r="H15">
-        <v>7950648.1239892598</v>
+        <v>12046673.386285599</v>
       </c>
       <c r="I15">
-        <v>2655334.6787188598</v>
+        <v>2015264.9966045399</v>
       </c>
       <c r="J15">
-        <v>3.1646210700086099</v>
+        <v>6.27617329778636</v>
       </c>
     </row>
     <row r="16">
@@ -1115,29 +1304,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.78000000000000003</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F16">
-        <v>2801063.2073567002</v>
+        <v>2112236.3918306902</v>
       </c>
       <c r="G16">
-        <v>0.91341568310186805</v>
+        <v>0.97522523613016199</v>
       </c>
       <c r="H16">
-        <v>8191344.1896833703</v>
+        <v>12279961.953487501</v>
       </c>
       <c r="I16">
-        <v>2952307.4453832698</v>
+        <v>2211473.8061996298</v>
       </c>
       <c r="J16">
-        <v>2.9243696351334201</v>
+        <v>5.8137252066017</v>
       </c>
     </row>
     <row r="17">
@@ -1145,29 +1334,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.79000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F17">
-        <v>3106313.5334443999</v>
+        <v>2311840.1315782699</v>
       </c>
       <c r="G17">
-        <v>0.89845152837116304</v>
+        <v>0.97114090208952697</v>
       </c>
       <c r="H17">
-        <v>8440822.1298881397</v>
+        <v>12519687.861756301</v>
       </c>
       <c r="I17">
-        <v>3265830.6596337301</v>
+        <v>2414452.8758545099</v>
       </c>
       <c r="J17">
-        <v>2.7173117069507899</v>
+        <v>5.4154643700251102</v>
       </c>
     </row>
     <row r="18">
@@ -1175,29 +1364,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.80000000000000004</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F18">
-        <v>3428089.2407646198</v>
+        <v>2518182.0064714998</v>
       </c>
       <c r="G18">
-        <v>0.88189824040264098</v>
+        <v>0.96668168939493404</v>
       </c>
       <c r="H18">
-        <v>8699571.7034008596</v>
+        <v>12766157.007753899</v>
       </c>
       <c r="I18">
-        <v>3595776.59064944</v>
+        <v>2624126.7381466501</v>
       </c>
       <c r="J18">
-        <v>2.5377319819890301</v>
+        <v>5.0695926565061598</v>
       </c>
     </row>
     <row r="19">
@@ -1205,29 +1394,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81000000000000005</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F19">
-        <v>3766141.5750468201</v>
+        <v>2731169.4554865002</v>
       </c>
       <c r="G19">
-        <v>0.86367257851784396</v>
+        <v>0.96183523354566802</v>
       </c>
       <c r="H19">
-        <v>8968192.4988088291</v>
+        <v>13019707.764494101</v>
       </c>
       <c r="I19">
-        <v>3941755.97013496</v>
+        <v>2840384.6652887599</v>
       </c>
       <c r="J19">
-        <v>2.3812680219535598</v>
+        <v>4.7670816390903497</v>
       </c>
     </row>
     <row r="20">
@@ -1235,29 +1424,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.81999999999999995</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F20">
-        <v>4119930.17166834</v>
+        <v>2950673.0450884802</v>
       </c>
       <c r="G20">
-        <v>0.84369327509535597</v>
+        <v>0.95658937454231197</v>
       </c>
       <c r="H20">
-        <v>9247438.9726240393</v>
+        <v>13280716.0490891</v>
       </c>
       <c r="I20">
-        <v>4303054.4167208001</v>
+        <v>3063077.44322416</v>
       </c>
       <c r="J20">
-        <v>2.24456206472047</v>
+        <v>4.5009107570204598</v>
       </c>
     </row>
     <row r="21">
@@ -1265,29 +1454,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.82999999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="F21">
-        <v>4488554.2766043302</v>
+        <v>3176523.2480852301</v>
       </c>
       <c r="G21">
-        <v>0.82188268344876203</v>
+        <v>0.95093222796639898</v>
       </c>
       <c r="H21">
-        <v>9538285.1229712907</v>
+        <v>13549601.2755592</v>
       </c>
       <c r="I21">
-        <v>4678558.2941175997</v>
+        <v>3292014.1873866399</v>
       </c>
       <c r="J21">
-        <v>2.12502390194715</v>
+        <v>4.2655445017525802</v>
       </c>
     </row>
     <row r="22">
@@ -1295,29 +1484,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.83999999999999997</v>
+        <v>0.63</v>
       </c>
       <c r="F22">
-        <v>4870673.2377118897</v>
+        <v>3408507.31544516</v>
       </c>
       <c r="G22">
-        <v>0.79816880150219105</v>
+        <v>0.94485226194097904</v>
       </c>
       <c r="H22">
-        <v>9842018.0497746393</v>
+        <v>13826833.359023301</v>
       </c>
       <c r="I22">
-        <v>5066670.0747589404</v>
+        <v>3526959.3162435899</v>
       </c>
       <c r="J22">
-        <v>2.0206689238710198</v>
+        <v>4.0565655518381902</v>
       </c>
     </row>
     <row r="23">
@@ -1325,29 +1514,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.84999999999999998</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F23">
-        <v>5264417.0296093896</v>
+        <v>3646366.3785509998</v>
       </c>
       <c r="G23">
-        <v>0.77248772445627201</v>
+        <v>0.93833837968070199</v>
       </c>
       <c r="H23">
-        <v>10160374.581442401</v>
+        <v>14112940.971322799</v>
       </c>
       <c r="I23">
-        <v>5465215.1410317002</v>
+        <v>3767629.8464931399</v>
       </c>
       <c r="J23">
-        <v>1.93000944345707</v>
+        <v>3.8704122148392002</v>
       </c>
     </row>
     <row r="24">
@@ -1355,29 +1544,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.85999999999999999</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F24">
-        <v>5667290.2525248202</v>
+        <v>3889792.9753039698</v>
       </c>
       <c r="G24">
-        <v>0.74478656984418101</v>
+        <v>0.93138000703735002</v>
       </c>
       <c r="H24">
-        <v>10495743.1129003</v>
+        <v>14408521.289175</v>
       </c>
       <c r="I24">
-        <v>5871345.9725311799</v>
+        <v>4013693.2400004002</v>
       </c>
       <c r="J24">
-        <v>1.851986160092</v>
+        <v>3.7041871844218299</v>
       </c>
     </row>
     <row r="25">
@@ -1385,29 +1574,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.87</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F25">
-        <v>6076078.7817387702</v>
+        <v>4138429.2708487902</v>
       </c>
       <c r="G25">
-        <v>0.71502688822705995</v>
+        <v>0.92396718402183597</v>
       </c>
       <c r="H25">
-        <v>10851465.969851701</v>
+        <v>14714251.5259155</v>
       </c>
       <c r="I25">
-        <v>6281458.2844909001</v>
+        <v>4264766.1239551604</v>
       </c>
       <c r="J25">
-        <v>1.7859324014140601</v>
+        <v>3.5555160093137399</v>
       </c>
     </row>
     <row r="26">
@@ -1415,29 +1604,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.88</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F26">
-        <v>6486780.6044963496</v>
+        <v>4391866.3512588302</v>
       </c>
       <c r="G26">
-        <v>0.68318849895273803</v>
+        <v>0.91609065868991102</v>
       </c>
       <c r="H26">
-        <v>11232299.9436318</v>
+        <v>15030902.598702099</v>
       </c>
       <c r="I26">
-        <v>6691152.48673815</v>
+        <v>4520414.3336802004</v>
       </c>
       <c r="J26">
-        <v>1.73156772649996</v>
+        <v>3.42244080227848</v>
       </c>
     </row>
     <row r="27">
@@ -1445,29 +1634,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.89000000000000001</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F27">
-        <v>6894609.6850862103</v>
+        <v>4649645.1190007804</v>
       </c>
       <c r="G27">
-        <v>0.64927352126473703</v>
+        <v>0.90774198094881797</v>
       </c>
       <c r="H27">
-        <v>11645131.5306221</v>
+        <v>15359355.356984099</v>
       </c>
       <c r="I27">
-        <v>7095316.2654873803</v>
+        <v>4780154.9067434398</v>
       </c>
       <c r="J27">
-        <v>1.68901969255951</v>
+        <v>3.3033392794254399</v>
       </c>
     </row>
     <row r="28">
@@ -1475,29 +1664,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.90000000000000002</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F28">
-        <v>7294184.4439248499</v>
+        <v>4911259.5310044698</v>
       </c>
       <c r="G28">
-        <v>0.61330998683471705</v>
+        <v>0.89891359268105198</v>
       </c>
       <c r="H28">
-        <v>12100113.057135601</v>
+        <v>15700619.887637001</v>
       </c>
       <c r="I28">
-        <v>7488504.45691384</v>
+        <v>5043460.9107950702</v>
       </c>
       <c r="J28">
-        <v>1.6588712761730999</v>
+        <v>3.1968621874938599</v>
       </c>
     </row>
     <row r="29">
@@ -1505,29 +1694,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.91000000000000003</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F29">
-        <v>7680164.3759262403</v>
+        <v>5176163.2210822096</v>
       </c>
       <c r="G29">
-        <v>0.57535352685624497</v>
+        <v>0.88959890895166405</v>
       </c>
       <c r="H29">
-        <v>12612514.0127158</v>
+        <v>16055858.520198399</v>
       </c>
       <c r="I29">
-        <v>7866044.4173260797</v>
+        <v>5309770.3492819099</v>
       </c>
       <c r="J29">
-        <v>1.64221928013028</v>
+        <v>3.1018841242880102</v>
       </c>
     </row>
     <row r="30">
@@ -1535,29 +1724,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.92000000000000004</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F30">
-        <v>8048990.9698504098</v>
+        <v>5443780.9790643603</v>
       </c>
       <c r="G30">
-        <v>0.53548345642589801</v>
+        <v>0.87979238276775196</v>
       </c>
       <c r="H30">
-        <v>13205822.7121395</v>
+        <v>16426413.284712801</v>
       </c>
       <c r="I30">
-        <v>8226976.0883494699</v>
+        <v>5578500.9089191398</v>
       </c>
       <c r="J30">
-        <v>1.64068052276433</v>
+        <v>3.0174640287486398</v>
       </c>
     </row>
     <row r="31">
@@ -1565,29 +1754,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93000000000000005</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F31">
-        <v>8403486.8842782602</v>
+        <v>5713527.1806245297</v>
       </c>
       <c r="G31">
-        <v>0.49378395682114401</v>
+        <v>0.86948954260109901</v>
       </c>
       <c r="H31">
-        <v>13917086.5155381</v>
+        <v>16813838.726705398</v>
       </c>
       <c r="I31">
-        <v>8581946.3458277192</v>
+        <v>5849073.0670657698</v>
       </c>
       <c r="J31">
-        <v>1.65610855436391</v>
+        <v>2.9428124160717699</v>
       </c>
     </row>
     <row r="32">
@@ -1595,29 +1784,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.93999999999999995</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F32">
-        <v>8765442.1605457999</v>
+        <v>5984834.1673554201</v>
       </c>
       <c r="G32">
-        <v>0.45028524424281802</v>
+        <v>0.85868698723417003</v>
       </c>
       <c r="H32">
-        <v>14806276.543823199</v>
+        <v>17219941.1585439</v>
       </c>
       <c r="I32">
-        <v>8975781.9606778398</v>
+        <v>6120945.1813814696</v>
       </c>
       <c r="J32">
-        <v>1.68916482165245</v>
+        <v>2.8772628742949902</v>
       </c>
     </row>
     <row r="33">
@@ -1625,29 +1814,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.94999999999999996</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F33">
-        <v>9212946.6655820701</v>
+        <v>6257194.9088401897</v>
       </c>
       <c r="G33">
-        <v>0.40479032456611103</v>
+        <v>0.84738231579962897</v>
       </c>
       <c r="H33">
-        <v>15972375.460452201</v>
+        <v>17646825.619204</v>
       </c>
       <c r="I33">
-        <v>9559138.80404374</v>
+        <v>6393665.8173948098</v>
       </c>
       <c r="J33">
-        <v>1.73368804143002</v>
+        <v>2.8202454736182898</v>
       </c>
     </row>
     <row r="34">
@@ -1655,29 +1844,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.95999999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="F34">
-        <v>10005039.2218461</v>
+        <v>6530226.2582981298</v>
       </c>
       <c r="G34">
-        <v>0.35633858476520103</v>
+        <v>0.83557396117692095</v>
       </c>
       <c r="H34">
-        <v>17575684.624554299</v>
+        <v>18096952.011276301</v>
       </c>
       <c r="I34">
-        <v>10765168.6180695</v>
+        <v>6666951.0106567601</v>
       </c>
       <c r="J34">
-        <v>1.7566832308041</v>
+        <v>2.7712595698012898</v>
       </c>
     </row>
     <row r="35">
@@ -1685,29 +1874,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.96999999999999997</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F35">
-        <v>11717371.5272236</v>
+        <v>6803762.0872876402</v>
       </c>
       <c r="G35">
-        <v>0.30177392580502599</v>
+        <v>0.82326088069469205</v>
       </c>
       <c r="H35">
-        <v>19845856.626715999</v>
+        <v>18573202.0529688</v>
       </c>
       <c r="I35">
-        <v>13083955.5168748</v>
+        <v>6940797.8485972099</v>
       </c>
       <c r="J35">
-        <v>1.6937123296472301</v>
+        <v>2.7298429625679499</v>
       </c>
     </row>
     <row r="36">
@@ -1715,29 +1904,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.97999999999999998</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F36">
-        <v>14653571.1589972</v>
+        <v>7077990.1019830704</v>
       </c>
       <c r="G36">
-        <v>0.23545619350029801</v>
+        <v>0.81044203706076501</v>
       </c>
       <c r="H36">
-        <v>23226807.181636602</v>
+        <v>19078958.757506698</v>
       </c>
       <c r="I36">
-        <v>16502061.1726136</v>
+        <v>7215651.39391609</v>
       </c>
       <c r="J36">
-        <v>1.58506120655615</v>
+        <v>2.6955334046258801</v>
       </c>
     </row>
     <row r="37">
@@ -1745,29 +1934,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.98999999999999999</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F37">
-        <v>18418254.281828299</v>
+        <v>7353653.0839813696</v>
       </c>
       <c r="G37">
-        <v>0.15181334758033499</v>
+        <v>0.79711557100409602</v>
       </c>
       <c r="H37">
-        <v>29951553.190659501</v>
+        <v>19618200.001306299</v>
       </c>
       <c r="I37">
-        <v>18634836.917526599</v>
+        <v>7492650.6873900099</v>
       </c>
       <c r="J37">
-        <v>1.62618849389055</v>
+        <v>2.6678169036884598</v>
       </c>
     </row>
     <row r="38">
@@ -1775,29 +1964,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99099999999999999</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F38">
-        <v>18861411.3948397</v>
+        <v>7632346.0899512898</v>
       </c>
       <c r="G38">
-        <v>0.142368037829435</v>
+        <v>0.78327751957824998</v>
       </c>
       <c r="H38">
-        <v>31208966.1098965</v>
+        <v>20195607.111492801</v>
       </c>
       <c r="I38">
-        <v>19118628.047169302</v>
+        <v>7773993.20832422</v>
       </c>
       <c r="J38">
-        <v>1.6546463812583501</v>
+        <v>2.6460549447675401</v>
       </c>
     </row>
     <row r="39">
@@ -1805,29 +1994,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99199999999999999</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F39">
-        <v>19398413.6708242</v>
+        <v>7916958.1278211502</v>
       </c>
       <c r="G39">
-        <v>0.132677512244641</v>
+        <v>0.76891986134896495</v>
       </c>
       <c r="H39">
-        <v>32720258.367737401</v>
+        <v>20816687.806651201</v>
       </c>
       <c r="I39">
-        <v>19746554.324425399</v>
+        <v>8063478.7790891305</v>
       </c>
       <c r="J39">
-        <v>1.6867491807822199</v>
+        <v>2.6293795509033799</v>
       </c>
     </row>
     <row r="40">
@@ -1835,29 +2024,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99299999999999999</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F40">
-        <v>20144835.8967789</v>
+        <v>8212333.88249839</v>
       </c>
       <c r="G40">
-        <v>0.122668714049485</v>
+        <v>0.754027557053499</v>
       </c>
       <c r="H40">
-        <v>34573644.659639098</v>
+        <v>21487909.3344176</v>
       </c>
       <c r="I40">
-        <v>20695799.6650781</v>
+        <v>8367328.5458457395</v>
       </c>
       <c r="J40">
-        <v>1.71625347740695</v>
+        <v>2.6165411248331401</v>
       </c>
     </row>
     <row r="41">
@@ -1865,29 +2054,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.99399999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F41">
-        <v>21359861.476697698</v>
+        <v>8526274.6801061891</v>
       </c>
       <c r="G41">
-        <v>0.112178778492529</v>
+        <v>0.73857407769815897</v>
       </c>
       <c r="H41">
-        <v>36886618.825399302</v>
+        <v>22216830.489338301</v>
       </c>
       <c r="I41">
-        <v>22364654.923179898</v>
+        <v>8695430.8614203706</v>
       </c>
       <c r="J41">
-        <v>1.7269128297316101</v>
+        <v>2.60569021323878</v>
       </c>
     </row>
     <row r="42">
@@ -1895,29 +2084,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.995</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F42">
-        <v>23587403.590737998</v>
+        <v>8871068.9781814795</v>
       </c>
       <c r="G42">
-        <v>0.100842961916493</v>
+        <v>0.72251463165555496</v>
       </c>
       <c r="H42">
-        <v>39791011.605843201</v>
+        <v>23012206.9380394</v>
       </c>
       <c r="I42">
-        <v>25204109.273180299</v>
+        <v>9063257.9824211709</v>
       </c>
       <c r="J42">
-        <v>1.6869602223395099</v>
+        <v>2.5940737237686</v>
       </c>
     </row>
     <row r="43">
@@ -1925,29 +2114,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.996</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F43">
-        <v>26967884.878931299</v>
+        <v>9265859.6606614497</v>
       </c>
       <c r="G43">
-        <v>0.088067930928333094</v>
+        <v>0.70577585184595804</v>
       </c>
       <c r="H43">
-        <v>43437737.189008899</v>
+        <v>23884016.2477655</v>
       </c>
       <c r="I43">
-        <v>28831264.117225099</v>
+        <v>9494849.5743084904</v>
       </c>
       <c r="J43">
-        <v>1.6107209513840901</v>
+        <v>2.5776363038570498</v>
       </c>
     </row>
     <row r="44">
@@ -1955,29 +2144,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.997</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F44">
-        <v>30609137.356581401</v>
+        <v>9740349.0938453991</v>
       </c>
       <c r="G44">
-        <v>0.073454429275358099</v>
+        <v>0.688239972732966</v>
       </c>
       <c r="H44">
-        <v>48306561.546270199</v>
+        <v>24843294.025996</v>
       </c>
       <c r="I44">
-        <v>31903865.7629175</v>
+        <v>10026890.7590004</v>
       </c>
       <c r="J44">
-        <v>1.57817454910677</v>
+        <v>2.5505547888107598</v>
       </c>
     </row>
     <row r="45">
@@ -1985,29 +2174,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.998</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F45">
-        <v>32916899.952242501</v>
+        <v>10337025.954964999</v>
       </c>
       <c r="G45">
-        <v>0.057283539467437999</v>
+        <v>0.66972147564115603</v>
       </c>
       <c r="H45">
-        <v>56507909.437946603</v>
+        <v>25901608.545067102</v>
       </c>
       <c r="I45">
-        <v>36735056.055681601</v>
+        <v>10695356.110029301</v>
       </c>
       <c r="J45">
-        <v>1.7166838165176901</v>
+        <v>2.5057118612173199</v>
       </c>
     </row>
     <row r="46">
@@ -2015,29 +2204,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.999</v>
+        <v>0.87</v>
       </c>
       <c r="F46">
-        <v>45908503.8468109</v>
+        <v>11077951.3957817</v>
       </c>
       <c r="G46">
-        <v>0.038663897948802303</v>
+        <v>0.64996840105602904</v>
       </c>
       <c r="H46">
-        <v>76280762.8202115</v>
+        <v>27071320.270839199</v>
       </c>
       <c r="I46">
-        <v>46953259.308036998</v>
+        <v>11508910.444462899</v>
       </c>
       <c r="J46">
-        <v>1.66158241781845</v>
+        <v>2.4437117751886501</v>
       </c>
     </row>
     <row r="47">
@@ -2045,29 +2234,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99909999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F47">
-        <v>47866075.441871203</v>
+        <v>11963774.431174099</v>
       </c>
       <c r="G47">
-        <v>0.036284010859146197</v>
+        <v>0.62871278655715002</v>
       </c>
       <c r="H47">
-        <v>79539374.321563706</v>
+        <v>28368187.7563706</v>
       </c>
       <c r="I47">
-        <v>48472780.709519699</v>
+        <v>12465209.8120912</v>
       </c>
       <c r="J47">
-        <v>1.6617066176264399</v>
+        <v>2.3711737394890502</v>
       </c>
     </row>
     <row r="48">
@@ -2075,29 +2264,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99919999999999998</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F48">
-        <v>48921602.1762795</v>
+        <v>12989050.315226199</v>
       </c>
       <c r="G48">
-        <v>0.033827104848564597</v>
+        <v>0.60569099872657906</v>
       </c>
       <c r="H48">
-        <v>83422698.523068905</v>
+        <v>29813913.024032298</v>
       </c>
       <c r="I48">
-        <v>49138961.395534299</v>
+        <v>13555079.2039077</v>
       </c>
       <c r="J48">
-        <v>1.7052323475112601</v>
+        <v>2.2953112275716898</v>
       </c>
     </row>
     <row r="49">
@@ -2105,29 +2294,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99929999999999997</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F49">
-        <v>49338301.363113403</v>
+        <v>14140591.5847854</v>
       </c>
       <c r="G49">
-        <v>0.031336432602424601</v>
+        <v>0.58065634931728904</v>
       </c>
       <c r="H49">
-        <v>88320375.255573094</v>
+        <v>31439796.4060448</v>
       </c>
       <c r="I49">
-        <v>50005171.930626802</v>
+        <v>14761013.908217801</v>
       </c>
       <c r="J49">
-        <v>1.79009760805433</v>
+        <v>2.22337207163755</v>
       </c>
     </row>
     <row r="50">
@@ -2135,29 +2324,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99939999999999996</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F50">
-        <v>51338251.779573597</v>
+        <v>15396651.726553399</v>
       </c>
       <c r="G50">
-        <v>0.028801855347350799</v>
+        <v>0.55339447924194896</v>
       </c>
       <c r="H50">
-        <v>94706242.476396203</v>
+        <v>33292994.461358901</v>
       </c>
       <c r="I50">
-        <v>54747852.128282197</v>
+        <v>16058150.769545199</v>
       </c>
       <c r="J50">
-        <v>1.84475004881404</v>
+        <v>2.1623528967626799</v>
       </c>
     </row>
     <row r="51">
@@ -2165,29 +2354,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99950000000000006</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F51">
-        <v>58763133.782480001</v>
+        <v>16730594.1139508</v>
       </c>
       <c r="G51">
-        <v>0.0260268891706322</v>
+        <v>0.52373694875985599</v>
       </c>
       <c r="H51">
-        <v>102697920.54601701</v>
+        <v>35447349.922835603</v>
       </c>
       <c r="I51">
-        <v>62151601.210932299</v>
+        <v>17423914.287613299</v>
       </c>
       <c r="J51">
-        <v>1.74765901570477</v>
+        <v>2.1187143553544101</v>
       </c>
     </row>
     <row r="52">
@@ -2195,29 +2384,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99960000000000004</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F52">
-        <v>64572659.489944898</v>
+        <v>18129319.408637401</v>
       </c>
       <c r="G52">
-        <v>0.0228766543306403</v>
+        <v>0.49155701244475403</v>
       </c>
       <c r="H52">
-        <v>112834500.379785</v>
+        <v>38022126.442153104</v>
       </c>
       <c r="I52">
-        <v>67261004.188721597</v>
+        <v>18875730.5676792</v>
       </c>
       <c r="J52">
-        <v>1.7474036422079799</v>
+        <v>2.0972726876905301</v>
       </c>
     </row>
     <row r="53">
@@ -2225,29 +2414,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99970000000000003</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F53">
-        <v>72309736.633030102</v>
+        <v>19659588.5854064</v>
       </c>
       <c r="G53">
-        <v>0.0194674427473495</v>
+        <v>0.456695740887607</v>
       </c>
       <c r="H53">
-        <v>128025665.776824</v>
+        <v>41213192.421232097</v>
       </c>
       <c r="I53">
-        <v>80763570.250265107</v>
+        <v>20602943.860214598</v>
       </c>
       <c r="J53">
-        <v>1.77051766108001</v>
+        <v>2.0963405333835601</v>
       </c>
     </row>
     <row r="54">
@@ -2255,29 +2444,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99980000000000002</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F54">
-        <v>89457552.951082602</v>
+        <v>21699974.0758387</v>
       </c>
       <c r="G54">
-        <v>0.0153738360204521</v>
+        <v>0.41864450794526797</v>
       </c>
       <c r="H54">
-        <v>151656713.54010299</v>
+        <v>45335242.1334356</v>
       </c>
       <c r="I54">
-        <v>100177465.60451201</v>
+        <v>23350503.906590499</v>
       </c>
       <c r="J54">
-        <v>1.6952924435909</v>
+        <v>2.08918416100382</v>
       </c>
     </row>
     <row r="55">
@@ -2285,29 +2474,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990000000000001</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F55">
-        <v>114889881.245208</v>
+        <v>25346957.490187</v>
       </c>
       <c r="G55">
-        <v>0.010296210727124701</v>
+        <v>0.37551885223805398</v>
       </c>
       <c r="H55">
-        <v>203135961.47569299</v>
+        <v>50831426.690146796</v>
       </c>
       <c r="I55">
-        <v>117298339.876077</v>
+        <v>27994378.341138799</v>
       </c>
       <c r="J55">
-        <v>1.7680927099414601</v>
+        <v>2.0054251761706001</v>
       </c>
     </row>
     <row r="56">
@@ -2315,29 +2504,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99990999999999997</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F56">
-        <v>119879290.566746</v>
+        <v>30922706.132103398</v>
       </c>
       <c r="G56">
-        <v>0.0097016688171020094</v>
+        <v>0.32381650239126097</v>
       </c>
       <c r="H56">
-        <v>212673474.98671499</v>
+        <v>58443776.139816098</v>
       </c>
       <c r="I56">
-        <v>122870851.93229499</v>
+        <v>34350341.8845421</v>
       </c>
       <c r="J56">
-        <v>1.77406350989627</v>
+        <v>1.8899955227120599</v>
       </c>
     </row>
     <row r="57">
@@ -2345,29 +2534,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992000000000003</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F57">
-        <v>126106201.79617199</v>
+        <v>38181804.455196701</v>
       </c>
       <c r="G57">
-        <v>0.0090788819040807205</v>
+        <v>0.26037542962195998</v>
       </c>
       <c r="H57">
-        <v>223898802.86845601</v>
+        <v>70490493.267453194</v>
       </c>
       <c r="I57">
-        <v>129927600.40869799</v>
+        <v>45579501.024442397</v>
       </c>
       <c r="J57">
-        <v>1.7754781262094299</v>
+        <v>1.84618024929042</v>
       </c>
     </row>
     <row r="58">
@@ -2375,29 +2564,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99992999999999999</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F58">
-        <v>134100283.05155399</v>
+        <v>53803806.239448398</v>
       </c>
       <c r="G58">
-        <v>0.0084203269424834096</v>
+        <v>0.17619541036627601</v>
       </c>
       <c r="H58">
-        <v>237323260.36279199</v>
+        <v>95401485.510463998</v>
       </c>
       <c r="I58">
-        <v>139126477.05176699</v>
+        <v>55103473.963522702</v>
       </c>
       <c r="J58">
-        <v>1.76974466393598</v>
+        <v>1.77313636670776</v>
       </c>
     </row>
     <row r="59">
@@ -2405,29 +2594,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99994000000000005</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F59">
-        <v>144669356.57466099</v>
+        <v>56745598.992397301</v>
       </c>
       <c r="G59">
-        <v>0.0077151462767683096</v>
+        <v>0.16601844178380501</v>
       </c>
       <c r="H59">
-        <v>253689390.91453901</v>
+        <v>99879042.349013001</v>
       </c>
       <c r="I59">
-        <v>151480001.87593201</v>
+        <v>59111695.749247402</v>
       </c>
       <c r="J59">
-        <v>1.7535806954641</v>
+        <v>1.76011962376844</v>
       </c>
     </row>
     <row r="60">
@@ -2435,29 +2624,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995000000000001</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F60">
-        <v>159064022.392777</v>
+        <v>61775588.512680598</v>
       </c>
       <c r="G60">
-        <v>0.0069473501618214396</v>
+        <v>0.15510120141353601</v>
       </c>
       <c r="H60">
-        <v>274131268.722395</v>
+        <v>104974960.67398401</v>
       </c>
       <c r="I60">
-        <v>168551242.44467399</v>
+        <v>64448509.049113601</v>
       </c>
       <c r="J60">
-        <v>1.72340209054617</v>
+        <v>1.6992951941273</v>
       </c>
     </row>
     <row r="61">
@@ -2465,29 +2654,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99995999999999996</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F61">
-        <v>179194886.12243801</v>
+        <v>66590402.3396172</v>
       </c>
       <c r="G61">
-        <v>0.0060930262410769402</v>
+        <v>0.14319831390749399</v>
       </c>
       <c r="H61">
-        <v>300526275.291682</v>
+        <v>110764453.76325101</v>
       </c>
       <c r="I61">
-        <v>192600651.86970499</v>
+        <v>67253939.658383995</v>
       </c>
       <c r="J61">
-        <v>1.6770918065504501</v>
+        <v>1.66336964294557</v>
       </c>
     </row>
     <row r="62">
@@ -2495,29 +2684,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997000000000003</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F62">
-        <v>207580704.000736</v>
+        <v>67643258.325170904</v>
       </c>
       <c r="G62">
-        <v>0.0051168047569943396</v>
+        <v>0.13077729610734901</v>
       </c>
       <c r="H62">
-        <v>336501483.09873402</v>
+        <v>118016206.114062</v>
       </c>
       <c r="I62">
-        <v>225751435.94024599</v>
+        <v>69051854.634853095</v>
       </c>
       <c r="J62">
-        <v>1.6210634062477201</v>
+        <v>1.74468541338948</v>
       </c>
     </row>
     <row r="63">
@@ -2525,29 +2714,29 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="D63"/>
       <c r="E63">
-        <v>0.99997999999999998</v>
+        <v>0.995</v>
       </c>
       <c r="F63">
-        <v>246248333.709905</v>
+        <v>71798725.897470206</v>
       </c>
       <c r="G63">
-        <v>0.0039725542070072799</v>
+        <v>0.11802422439275199</v>
       </c>
       <c r="H63">
-        <v>391876506.67829299</v>
+        <v>127809076.409904</v>
       </c>
       <c r="I63">
-        <v>278419063.37272602</v>
+        <v>78295403.114006504</v>
       </c>
       <c r="J63">
-        <v>1.5913874452443899</v>
+        <v>1.78010229028879</v>
       </c>
     </row>
     <row r="64">
@@ -2555,29 +2744,659 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D64"/>
       <c r="E64">
+        <v>0.996</v>
+      </c>
+      <c r="F64">
+        <v>86427240.380718902</v>
+      </c>
+      <c r="G64">
+        <v>0.103563977146442</v>
+      </c>
+      <c r="H64">
+        <v>140187494.73387799</v>
+      </c>
+      <c r="I64">
+        <v>93362397.833593994</v>
+      </c>
+      <c r="J64">
+        <v>1.6220290514465201</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.997</v>
+      </c>
+      <c r="F65">
+        <v>98229159.033177793</v>
+      </c>
+      <c r="G65">
+        <v>0.086321031807540499</v>
+      </c>
+      <c r="H65">
+        <v>155795860.36730599</v>
+      </c>
+      <c r="I65">
+        <v>99674270.429977506</v>
+      </c>
+      <c r="J65">
+        <v>1.5860449371727301</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.998</v>
+      </c>
+      <c r="F66">
+        <v>100488406.693422</v>
+      </c>
+      <c r="G66">
+        <v>0.067912357259760206</v>
+      </c>
+      <c r="H66">
+        <v>183856655.33597001</v>
+      </c>
+      <c r="I66">
+        <v>109276097.930525</v>
+      </c>
+      <c r="J66">
+        <v>1.82963051545731</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.999</v>
+      </c>
+      <c r="F67">
+        <v>133856506.94351099</v>
+      </c>
+      <c r="G67">
+        <v>0.0477303372261388</v>
+      </c>
+      <c r="H67">
+        <v>258437212.74141601</v>
+      </c>
+      <c r="I67">
+        <v>139739969.24358299</v>
+      </c>
+      <c r="J67">
+        <v>1.9307033975604899</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F68">
+        <v>146160968.00355801</v>
+      </c>
+      <c r="G68">
+        <v>0.045149503071020697</v>
+      </c>
+      <c r="H68">
+        <v>271625795.35228503</v>
+      </c>
+      <c r="I68">
+        <v>153748219.77842301</v>
+      </c>
+      <c r="J68">
+        <v>1.8584017269622399</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F69">
+        <v>161956013.23081499</v>
+      </c>
+      <c r="G69">
+        <v>0.042309952876179197</v>
+      </c>
+      <c r="H69">
+        <v>286360492.299016</v>
+      </c>
+      <c r="I69">
+        <v>171428652.689037</v>
+      </c>
+      <c r="J69">
+        <v>1.76813745032673</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F70">
+        <v>181515142.16710499</v>
+      </c>
+      <c r="G70">
+        <v>0.0391438657185776</v>
+      </c>
+      <c r="H70">
+        <v>302779326.52901</v>
+      </c>
+      <c r="I70">
+        <v>192630191.814262</v>
+      </c>
+      <c r="J70">
+        <v>1.6680664924927699</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F71">
+        <v>204069943.37571201</v>
+      </c>
+      <c r="G71">
+        <v>0.035586210875569797</v>
+      </c>
+      <c r="H71">
+        <v>321137515.64813101</v>
+      </c>
+      <c r="I71">
+        <v>215313393.51935899</v>
+      </c>
+      <c r="J71">
+        <v>1.5736639621489299</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
+        <v>241</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F72">
+        <v>225775013.487847</v>
+      </c>
+      <c r="G72">
+        <v>0.0316096237684085</v>
+      </c>
+      <c r="H72">
+        <v>342302340.07388097</v>
+      </c>
+      <c r="I72">
+        <v>234972235.35576099</v>
+      </c>
+      <c r="J72">
+        <v>1.51612144668217</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F73">
+        <v>245006172.75134</v>
+      </c>
+      <c r="G73">
+        <v>0.027269960794434799</v>
+      </c>
+      <c r="H73">
+        <v>369134866.25340402</v>
+      </c>
+      <c r="I73">
+        <v>257468929.89552799</v>
+      </c>
+      <c r="J73">
+        <v>1.5066349639608601</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F74">
+        <v>271567534.21991903</v>
+      </c>
+      <c r="G74">
+        <v>0.0225148101259918</v>
+      </c>
+      <c r="H74">
+        <v>406356845.03940302</v>
+      </c>
+      <c r="I74">
+        <v>290452482.699579</v>
+      </c>
+      <c r="J74">
+        <v>1.49633808844886</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F75">
+        <v>312921833.00119698</v>
+      </c>
+      <c r="G75">
+        <v>0.0171504917291323</v>
+      </c>
+      <c r="H75">
+        <v>464309026.20931602</v>
+      </c>
+      <c r="I75">
+        <v>348234744.46864098</v>
+      </c>
+      <c r="J75">
+        <v>1.48378597222247</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F76">
+        <v>395751683.94075102</v>
+      </c>
+      <c r="G76">
+        <v>0.010719002389408001</v>
+      </c>
+      <c r="H76">
+        <v>580383307.94998896</v>
+      </c>
+      <c r="I76">
+        <v>402639047.44717598</v>
+      </c>
+      <c r="J76">
+        <v>1.4665340199459</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F77">
+        <v>409844700.14646101</v>
+      </c>
+      <c r="G77">
+        <v>0.0099753750568301203</v>
+      </c>
+      <c r="H77">
+        <v>600132670.22798395</v>
+      </c>
+      <c r="I77">
+        <v>417772552.64279503</v>
+      </c>
+      <c r="J77">
+        <v>1.4642928651109099</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F78">
+        <v>426111074.06915802</v>
+      </c>
+      <c r="G78">
+        <v>0.0092037979062389603</v>
+      </c>
+      <c r="H78">
+        <v>622927684.92600703</v>
+      </c>
+      <c r="I78">
+        <v>435396166.54744798</v>
+      </c>
+      <c r="J78">
+        <v>1.4618903915764101</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F79">
+        <v>445228398.25270301</v>
+      </c>
+      <c r="G79">
+        <v>0.0083996719974361606</v>
+      </c>
+      <c r="H79">
+        <v>649717901.83739495</v>
+      </c>
+      <c r="I79">
+        <v>456347506.45110101</v>
+      </c>
+      <c r="J79">
+        <v>1.4592912410511301</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F80">
+        <v>468226373.89624703</v>
+      </c>
+      <c r="G80">
+        <v>0.0075568514088658603</v>
+      </c>
+      <c r="H80">
+        <v>681946301.06826794</v>
+      </c>
+      <c r="I80">
+        <v>481941051.18132502</v>
+      </c>
+      <c r="J80">
+        <v>1.4564457260140999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F81">
+        <v>496770862.45467401</v>
+      </c>
+      <c r="G81">
+        <v>0.0066667625299406501</v>
+      </c>
+      <c r="H81">
+        <v>721947351.04591894</v>
+      </c>
+      <c r="I81">
+        <v>514399083.66273999</v>
+      </c>
+      <c r="J81">
+        <v>1.45328038661243</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F82">
+        <v>533797135.18325299</v>
+      </c>
+      <c r="G82">
+        <v>0.0057167274528910498</v>
+      </c>
+      <c r="H82">
+        <v>773834417.89142501</v>
+      </c>
+      <c r="I82">
+        <v>557897335.35068798</v>
+      </c>
+      <c r="J82">
+        <v>1.44967885154679</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F83">
+        <v>585160900.09544897</v>
+      </c>
+      <c r="G83">
+        <v>0.0046863561812284498</v>
+      </c>
+      <c r="H83">
+        <v>845813445.40447402</v>
+      </c>
+      <c r="I83">
+        <v>621680189.78798294</v>
+      </c>
+      <c r="J83">
+        <v>1.44543739211986</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F84">
+        <v>665130915.30902803</v>
+      </c>
+      <c r="G84">
+        <v>0.0035381854208792101</v>
+      </c>
+      <c r="H84">
+        <v>957880073.21333897</v>
+      </c>
+      <c r="I84">
+        <v>733418231.27081096</v>
+      </c>
+      <c r="J84">
+        <v>1.44013764984642</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F64">
-        <v>322158949.79262298</v>
-      </c>
-      <c r="G64">
-        <v>0.0025613509291157002</v>
-      </c>
-      <c r="H64">
-        <v>505333949.98259801</v>
-      </c>
-      <c r="I64">
-        <v>505333949.98259598</v>
-      </c>
-      <c r="J64">
-        <v>1.5685857875681699</v>
+      <c r="F85">
+        <v>825305422.794245</v>
+      </c>
+      <c r="G85">
+        <v>0.0021836475377756698</v>
+      </c>
+      <c r="H85">
+        <v>1182341915.1533899</v>
+      </c>
+      <c r="I85">
+        <v>1182341915.1533899</v>
+      </c>
+      <c r="J85">
+        <v>1.4326113490813199</v>
       </c>
     </row>
   </sheetData>
